--- a/data/trans_orig/P17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8858FCF-93ED-4322-AAAF-1418991FAF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37597159-0239-421D-AFAE-2D7443385FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECB60281-D4F8-4988-A5E0-7E086BC844D8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1DAC1E8-9F16-4AC1-8106-AF58B8EBEDE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="662">
   <si>
     <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2007 (Tasa respuesta: 99,83%)</t>
   </si>
@@ -77,1942 +77,1954 @@
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>No no he acudido en los últimos doce meses pero sí anteriorm</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>Sí por ambos motivos</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>Sí por algo que le pasaba a otra persona (familiar, conocido</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>Sí por algo que le pasaba a usted</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2012 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2015 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>No no he acudido en los últimos doce meses pero sí anteriorm</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>Sí por ambos motivos</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>Sí por algo que le pasaba a otra persona (familiar, conocido</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>Sí por algo que le pasaba a usted</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2012 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2015 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
     <t>59,37%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
   <si>
     <t>66,11%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
   </si>
 </sst>
 </file>
@@ -2424,7 +2436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B81F496-56DF-42DD-96E3-EAB0E38FE9D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001AB3D6-CEE3-4EB5-BF03-5B712F8CAF19}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2964,7 +2976,7 @@
         <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>342</v>
@@ -2973,13 +2985,13 @@
         <v>348055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>512</v>
@@ -2988,13 +3000,13 @@
         <v>522931</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3021,13 @@
         <v>192319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3024,13 +3036,13 @@
         <v>183592</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>367</v>
@@ -3167,10 +3179,10 @@
         <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3179,13 +3191,13 @@
         <v>16483</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -3194,13 +3206,13 @@
         <v>30792</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3227,13 @@
         <v>145992</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -3230,13 +3242,13 @@
         <v>76026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -3245,13 +3257,13 @@
         <v>222018</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3278,13 @@
         <v>58105</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -3281,13 +3293,13 @@
         <v>86010</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -3296,13 +3308,13 @@
         <v>144115</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3329,13 @@
         <v>94582</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -3332,13 +3344,13 @@
         <v>53768</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -3347,13 +3359,13 @@
         <v>148350</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3380,13 @@
         <v>235219</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -3383,13 +3395,13 @@
         <v>244126</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
@@ -3398,13 +3410,13 @@
         <v>479344</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3484,13 @@
         <v>64218</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3487,13 +3499,13 @@
         <v>46323</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -3502,13 +3514,13 @@
         <v>110541</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3535,13 @@
         <v>804921</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -3538,13 +3550,13 @@
         <v>415034</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1185</v>
@@ -3553,13 +3565,13 @@
         <v>1219954</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3586,13 @@
         <v>405964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>698</v>
@@ -3589,13 +3601,13 @@
         <v>711522</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1098</v>
@@ -3607,7 +3619,7 @@
         <v>31</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>173</v>
@@ -3631,7 +3643,7 @@
         <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>325</v>
@@ -3640,13 +3652,13 @@
         <v>331318</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>674</v>
@@ -3655,13 +3667,13 @@
         <v>689877</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3688,13 @@
         <v>1633470</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>1825</v>
@@ -3691,13 +3703,13 @@
         <v>1873093</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>3443</v>
@@ -3706,13 +3718,13 @@
         <v>3506563</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,7 +3780,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554E63D2-4E04-467C-B8F3-EF2C89502F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D651672C-52A7-4674-B1C6-BA74A01509DB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3804,7 +3816,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3911,13 +3923,13 @@
         <v>17890</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3926,13 +3938,13 @@
         <v>7859</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3941,13 +3953,13 @@
         <v>25750</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3974,13 @@
         <v>117617</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>61</v>
@@ -3977,13 +3989,13 @@
         <v>65694</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
@@ -3992,13 +4004,13 @@
         <v>183311</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4025,13 @@
         <v>128101</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>252</v>
@@ -4028,13 +4040,13 @@
         <v>268854</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>369</v>
@@ -4043,13 +4055,13 @@
         <v>396956</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4076,13 @@
         <v>58159</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -4079,13 +4091,13 @@
         <v>63292</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -4094,13 +4106,13 @@
         <v>121451</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4127,13 @@
         <v>651816</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>870</v>
@@ -4130,13 +4142,13 @@
         <v>931039</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>1477</v>
@@ -4145,13 +4157,13 @@
         <v>1582856</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4231,13 @@
         <v>22397</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4234,13 +4246,13 @@
         <v>13417</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4249,13 +4261,13 @@
         <v>35814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4282,13 @@
         <v>376894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -4285,13 +4297,13 @@
         <v>160825</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>510</v>
@@ -4300,13 +4312,13 @@
         <v>537719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4333,13 @@
         <v>316424</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>431</v>
@@ -4336,13 +4348,13 @@
         <v>458866</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>730</v>
@@ -4351,13 +4363,13 @@
         <v>775289</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4384,13 @@
         <v>217498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -4387,13 +4399,13 @@
         <v>215793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -4402,13 +4414,13 @@
         <v>433291</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4435,13 @@
         <v>1029702</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>845</v>
@@ -4438,13 +4450,13 @@
         <v>908903</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>1813</v>
@@ -4453,13 +4465,13 @@
         <v>1938605</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4539,13 @@
         <v>9987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4542,13 +4554,13 @@
         <v>9924</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4557,13 +4569,13 @@
         <v>19911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4590,13 @@
         <v>99528</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4593,13 +4605,13 @@
         <v>46402</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -4608,13 +4620,13 @@
         <v>145930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4641,13 @@
         <v>76508</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -4644,13 +4656,13 @@
         <v>116026</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -4659,7 +4671,7 @@
         <v>192534</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>300</v>
@@ -4683,10 +4695,10 @@
         <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -4695,28 +4707,28 @@
         <v>50165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
       </c>
       <c r="N19" s="7">
-        <v>119559</v>
+        <v>119558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4743,13 @@
         <v>225765</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -4746,13 +4758,13 @@
         <v>233992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -4761,13 +4773,13 @@
         <v>459757</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4821,7 @@
         <v>848</v>
       </c>
       <c r="N21" s="7">
-        <v>937691</v>
+        <v>937690</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -4835,13 +4847,13 @@
         <v>50275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -4850,13 +4862,13 @@
         <v>31200</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -4865,13 +4877,13 @@
         <v>81475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4898,13 @@
         <v>594039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>252</v>
@@ -4901,13 +4913,13 @@
         <v>272921</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>819</v>
@@ -4916,13 +4928,13 @@
         <v>866960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,7 +4949,7 @@
         <v>521034</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>335</v>
@@ -5009,7 +5021,7 @@
         <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>629</v>
@@ -5018,13 +5030,13 @@
         <v>674300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5051,13 @@
         <v>1907284</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>1923</v>
@@ -5054,13 +5066,13 @@
         <v>2073934</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>3702</v>
@@ -5069,13 +5081,13 @@
         <v>3981217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5143,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501DAF23-7F28-4209-AA7C-4FE3C02F545B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B1AC9C-8BB5-41FA-8F3E-24E4A0A9691F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5167,7 +5179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5274,13 +5286,13 @@
         <v>8025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5289,13 +5301,13 @@
         <v>6460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>361</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5310,7 +5322,7 @@
         <v>365</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>366</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5337,7 @@
         <v>92556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>367</v>
@@ -5412,7 +5424,7 @@
         <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,10 +5439,10 @@
         <v>32943</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>385</v>
@@ -5597,13 +5609,13 @@
         <v>20492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>405</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -5612,13 +5624,13 @@
         <v>45561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5645,13 @@
         <v>369934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
@@ -5648,13 +5660,13 @@
         <v>184666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -5663,13 +5675,13 @@
         <v>554600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5696,13 @@
         <v>243278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>278</v>
@@ -5699,13 +5711,13 @@
         <v>288230</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>503</v>
@@ -5714,13 +5726,13 @@
         <v>531508</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,10 +5765,10 @@
         <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -5765,13 +5777,13 @@
         <v>346929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5798,13 @@
         <v>1273927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>1237</v>
@@ -5801,13 +5813,13 @@
         <v>1298412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M14" s="7">
         <v>2442</v>
@@ -5816,13 +5828,13 @@
         <v>2572338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5846,7 @@
         <v>1948</v>
       </c>
       <c r="D15" s="7">
-        <v>2071898</v>
+        <v>2071899</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5890,13 +5902,13 @@
         <v>12836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5905,13 +5917,13 @@
         <v>11303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>445</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5920,13 +5932,13 @@
         <v>24139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5953,13 @@
         <v>131077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -5956,13 +5968,13 @@
         <v>74889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>453</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -5971,13 +5983,13 @@
         <v>205967</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6004,13 @@
         <v>67434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -6007,13 +6019,13 @@
         <v>104794</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M18" s="7">
         <v>158</v>
@@ -6022,13 +6034,13 @@
         <v>172228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>463</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,7 +6085,7 @@
         <v>99972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>470</v>
@@ -6097,10 +6109,10 @@
         <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>284</v>
@@ -6109,13 +6121,13 @@
         <v>295206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>556</v>
@@ -6124,13 +6136,13 @@
         <v>590584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6210,13 @@
         <v>45930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -6213,13 +6225,13 @@
         <v>38255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -6228,13 +6240,13 @@
         <v>84186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6261,13 @@
         <v>593567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>317</v>
@@ -6264,13 +6276,13 @@
         <v>331979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>868</v>
@@ -6279,13 +6291,13 @@
         <v>925546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6312,13 @@
         <v>384172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>496</v>
@@ -6315,13 +6327,13 @@
         <v>527009</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>494</v>
+        <v>368</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M24" s="7">
         <v>856</v>
@@ -6330,13 +6342,13 @@
         <v>911180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6363,13 @@
         <v>230662</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
@@ -6366,13 +6378,13 @@
         <v>284460</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="M25" s="7">
         <v>497</v>
@@ -6381,13 +6393,13 @@
         <v>515122</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>209</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6414,13 @@
         <v>2114461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H26" s="7">
         <v>2186</v>
@@ -6417,13 +6429,13 @@
         <v>2338280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>4219</v>
@@ -6432,13 +6444,13 @@
         <v>4452741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6506,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6513,7 +6525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C49A88-E00C-40B0-8E82-4DB28F9F4480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876CC2F8-B032-4569-A162-CFEE6FBEFF83}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6530,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6637,13 +6649,13 @@
         <v>5630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>516</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6652,13 +6664,13 @@
         <v>1435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -6667,13 +6679,13 @@
         <v>7065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6700,13 @@
         <v>73785</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H5" s="7">
         <v>116</v>
@@ -6703,13 +6715,13 @@
         <v>74104</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>531</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -6718,13 +6730,13 @@
         <v>147888</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>529</v>
+        <v>374</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6751,13 @@
         <v>39830</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>375</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>91</v>
@@ -6754,13 +6766,13 @@
         <v>55746</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M6" s="7">
         <v>137</v>
@@ -6772,10 +6784,10 @@
         <v>464</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>125</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6802,13 @@
         <v>17544</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>539</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>541</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -6805,13 +6817,13 @@
         <v>17366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -6820,13 +6832,13 @@
         <v>34909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>543</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6853,13 @@
         <v>401312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H8" s="7">
         <v>1186</v>
@@ -6856,13 +6868,13 @@
         <v>683247</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M8" s="7">
         <v>1715</v>
@@ -6871,13 +6883,13 @@
         <v>1084558</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6957,13 @@
         <v>21991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>482</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>554</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>555</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6960,13 +6972,13 @@
         <v>4588</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -6975,13 +6987,13 @@
         <v>26579</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +7008,13 @@
         <v>555951</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
@@ -7011,28 +7023,28 @@
         <v>348725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>564</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
       </c>
       <c r="N11" s="7">
-        <v>904677</v>
+        <v>904676</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7059,13 @@
         <v>170611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H12" s="7">
         <v>389</v>
@@ -7062,13 +7074,13 @@
         <v>291311</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M12" s="7">
         <v>542</v>
@@ -7077,13 +7089,13 @@
         <v>461922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>576</v>
+        <v>493</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,10 +7113,10 @@
         <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H13" s="7">
         <v>235</v>
@@ -7113,13 +7125,13 @@
         <v>181595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -7128,13 +7140,13 @@
         <v>347909</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>583</v>
+        <v>425</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7161,13 @@
         <v>1241572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H14" s="7">
         <v>1791</v>
@@ -7164,13 +7176,13 @@
         <v>1418203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M14" s="7">
         <v>3014</v>
@@ -7179,13 +7191,13 @@
         <v>2659775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,7 +7239,7 @@
         <v>4901</v>
       </c>
       <c r="N15" s="7">
-        <v>4400862</v>
+        <v>4400861</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7253,13 +7265,13 @@
         <v>6610</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -7271,10 +7283,10 @@
         <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>592</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7283,13 +7295,13 @@
         <v>12512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>594</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7316,13 @@
         <v>179612</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -7319,13 +7331,13 @@
         <v>140548</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -7334,13 +7346,13 @@
         <v>320161</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7367,13 @@
         <v>81345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>606</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H18" s="7">
         <v>136</v>
@@ -7370,13 +7382,13 @@
         <v>102269</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="M18" s="7">
         <v>211</v>
@@ -7385,13 +7397,13 @@
         <v>183614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7418,13 @@
         <v>46819</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -7421,13 +7433,13 @@
         <v>59846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>616</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -7436,13 +7448,13 @@
         <v>106665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>615</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>616</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7469,13 @@
         <v>352855</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="H20" s="7">
         <v>559</v>
@@ -7472,13 +7484,13 @@
         <v>402724</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="M20" s="7">
         <v>934</v>
@@ -7487,13 +7499,13 @@
         <v>755579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>626</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,13 +7573,13 @@
         <v>34232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>625</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>626</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -7576,13 +7588,13 @@
         <v>11925</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>629</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7591,13 +7603,13 @@
         <v>46156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>629</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7624,13 @@
         <v>809349</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
@@ -7627,13 +7639,13 @@
         <v>563377</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>634</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>407</v>
+        <v>636</v>
       </c>
       <c r="M23" s="7">
         <v>1566</v>
@@ -7642,13 +7654,13 @@
         <v>1372726</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>635</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +7675,13 @@
         <v>291786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>46</v>
+        <v>638</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H24" s="7">
         <v>616</v>
@@ -7678,13 +7690,13 @@
         <v>449326</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="M24" s="7">
         <v>890</v>
@@ -7693,13 +7705,13 @@
         <v>741112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>645</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7726,13 @@
         <v>230677</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>644</v>
+        <v>265</v>
       </c>
       <c r="H25" s="7">
         <v>353</v>
@@ -7729,13 +7741,13 @@
         <v>258806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>645</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>219</v>
+        <v>649</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="M25" s="7">
         <v>522</v>
@@ -7744,13 +7756,13 @@
         <v>489483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,13 +7777,13 @@
         <v>1995739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="H26" s="7">
         <v>3536</v>
@@ -7780,13 +7792,13 @@
         <v>2504173</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="M26" s="7">
         <v>5663</v>
@@ -7795,13 +7807,13 @@
         <v>4499913</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,7 +7855,7 @@
         <v>8692</v>
       </c>
       <c r="N27" s="7">
-        <v>7149389</v>
+        <v>7149390</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7857,7 +7869,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37597159-0239-421D-AFAE-2D7443385FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9E31953-344A-4B26-8D4C-F55159E4ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1DAC1E8-9F16-4AC1-8106-AF58B8EBEDE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{222F0D57-F5DF-4EC9-AB27-48C4ED40959D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="672">
   <si>
     <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2007 (Tasa respuesta: 99,83%)</t>
   </si>
@@ -77,1915 +77,1945 @@
     <t>2,34%</t>
   </si>
   <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>No no he acudido en los últimos doce meses pero sí anteriorm</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>Sí por ambos motivos</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>Sí por algo que le pasaba a otra persona (familiar, conocido</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>Sí por algo que le pasaba a usted</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2012 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2016 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>No no he acudido en los últimos doce meses pero sí anteriorm</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>Sí por ambos motivos</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>Sí por algo que le pasaba a otra persona (familiar, conocido</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>Sí por algo que le pasaba a usted</t>
-  </si>
-  <si>
-    <t>55,99%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>52,88%</t>
   </si>
   <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2012 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2015 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>6,83%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
   </si>
   <si>
     <t>6,05%</t>
@@ -2436,7 +2466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001AB3D6-CEE3-4EB5-BF03-5B712F8CAF19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E1D51-D31D-4FB7-933D-5A8816F579FD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3042,7 +3072,7 @@
         <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>367</v>
@@ -3051,13 +3081,13 @@
         <v>375911</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3102,13 @@
         <v>822501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>772</v>
@@ -3087,13 +3117,13 @@
         <v>791218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1577</v>
@@ -3102,13 +3132,13 @@
         <v>1613719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3194,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3176,13 +3206,13 @@
         <v>14310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3191,13 +3221,13 @@
         <v>16483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -3206,13 +3236,13 @@
         <v>30792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3257,13 @@
         <v>145992</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -3245,10 +3275,10 @@
         <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -3257,13 +3287,13 @@
         <v>222018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3308,13 @@
         <v>58105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -3293,13 +3323,13 @@
         <v>86010</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -3308,13 +3338,13 @@
         <v>144115</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3359,13 @@
         <v>94582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -3344,13 +3374,13 @@
         <v>53768</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -3359,13 +3389,13 @@
         <v>148350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3410,13 @@
         <v>235219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -3395,13 +3425,13 @@
         <v>244126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
@@ -3410,13 +3440,13 @@
         <v>479344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3514,13 @@
         <v>64218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3499,13 +3529,13 @@
         <v>46323</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -3514,13 +3544,13 @@
         <v>110541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3565,13 @@
         <v>804921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -3550,13 +3580,13 @@
         <v>415034</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1185</v>
@@ -3565,13 +3595,13 @@
         <v>1219954</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3616,13 @@
         <v>405964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>698</v>
@@ -3601,13 +3631,13 @@
         <v>711522</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1098</v>
@@ -3619,10 +3649,10 @@
         <v>31</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3667,13 @@
         <v>358559</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>325</v>
@@ -3652,13 +3682,13 @@
         <v>331318</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>674</v>
@@ -3667,13 +3697,13 @@
         <v>689877</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3718,13 @@
         <v>1633470</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>1825</v>
@@ -3703,13 +3733,13 @@
         <v>1873093</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>3443</v>
@@ -3718,13 +3748,13 @@
         <v>3506563</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +3810,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D651672C-52A7-4674-B1C6-BA74A01509DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DFE71B-9E6F-434E-B7F2-D9390E6A3BA8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3816,7 +3846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3923,13 +3953,13 @@
         <v>17890</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3938,13 +3968,13 @@
         <v>7859</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3953,13 +3983,13 @@
         <v>25750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +4004,13 @@
         <v>117617</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>61</v>
@@ -3989,13 +4019,13 @@
         <v>65694</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
@@ -4004,13 +4034,13 @@
         <v>183311</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4055,13 @@
         <v>128101</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>252</v>
@@ -4040,13 +4070,13 @@
         <v>268854</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>369</v>
@@ -4055,13 +4085,13 @@
         <v>396956</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4106,13 @@
         <v>58159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -4091,13 +4121,13 @@
         <v>63292</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -4106,13 +4136,13 @@
         <v>121451</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4157,13 @@
         <v>651816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>870</v>
@@ -4142,13 +4172,13 @@
         <v>931039</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>1477</v>
@@ -4157,13 +4187,13 @@
         <v>1582856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4261,13 @@
         <v>22397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4246,13 +4276,13 @@
         <v>13417</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4261,13 +4291,13 @@
         <v>35814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4312,13 @@
         <v>376894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -4297,13 +4327,13 @@
         <v>160825</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>510</v>
@@ -4312,13 +4342,13 @@
         <v>537719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4363,13 @@
         <v>316424</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>431</v>
@@ -4348,13 +4378,13 @@
         <v>458866</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>730</v>
@@ -4363,13 +4393,13 @@
         <v>775289</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4414,13 @@
         <v>217498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -4399,13 +4429,13 @@
         <v>215793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -4414,13 +4444,13 @@
         <v>433291</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4465,13 @@
         <v>1029702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>845</v>
@@ -4450,13 +4480,13 @@
         <v>908903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>1813</v>
@@ -4465,13 +4495,13 @@
         <v>1938605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,7 +4557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4539,13 +4569,13 @@
         <v>9987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4554,13 +4584,13 @@
         <v>9924</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4569,13 +4599,13 @@
         <v>19911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4620,13 @@
         <v>99528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4605,13 +4635,13 @@
         <v>46402</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -4620,13 +4650,13 @@
         <v>145930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4671,13 @@
         <v>76508</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -4656,13 +4686,13 @@
         <v>116026</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -4671,13 +4701,13 @@
         <v>192534</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4722,13 @@
         <v>69393</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -4707,13 +4737,13 @@
         <v>50165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -4722,13 +4752,13 @@
         <v>119558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4773,13 @@
         <v>225765</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -4758,13 +4788,13 @@
         <v>233992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -4773,13 +4803,13 @@
         <v>459757</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4877,13 @@
         <v>50275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -4862,13 +4892,13 @@
         <v>31200</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -4877,13 +4907,13 @@
         <v>81475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4928,13 @@
         <v>594039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>252</v>
@@ -4913,13 +4943,13 @@
         <v>272921</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>819</v>
@@ -4928,13 +4958,13 @@
         <v>866960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4979,13 @@
         <v>521034</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>788</v>
@@ -4964,13 +4994,13 @@
         <v>843746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>1272</v>
@@ -4979,13 +5009,13 @@
         <v>1364779</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5030,13 @@
         <v>345051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>301</v>
@@ -5015,13 +5045,13 @@
         <v>329250</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>629</v>
@@ -5030,13 +5060,13 @@
         <v>674300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5081,13 @@
         <v>1907284</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>1923</v>
@@ -5066,28 +5096,28 @@
         <v>2073934</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>3702</v>
       </c>
       <c r="N26" s="7">
-        <v>3981217</v>
+        <v>3981218</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5159,7 @@
         <v>6491</v>
       </c>
       <c r="N27" s="7">
-        <v>6968731</v>
+        <v>6968732</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5143,7 +5173,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B1AC9C-8BB5-41FA-8F3E-24E4A0A9691F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703679A6-990D-4517-91E0-3410E6C8FA95}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5179,7 +5209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5286,13 +5316,13 @@
         <v>8025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5301,13 +5331,13 @@
         <v>6460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>369</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5316,13 +5346,13 @@
         <v>14486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5367,13 @@
         <v>92556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -5352,13 +5382,13 @@
         <v>72424</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
         <v>154</v>
@@ -5367,13 +5397,13 @@
         <v>164980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>374</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5418,13 @@
         <v>73459</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>375</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>120</v>
@@ -5403,13 +5433,13 @@
         <v>133985</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>195</v>
@@ -5418,13 +5448,13 @@
         <v>207444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>382</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>162</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5469,13 @@
         <v>32943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5454,13 +5484,13 @@
         <v>35278</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5469,13 +5499,13 @@
         <v>68221</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5520,13 @@
         <v>545156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H8" s="7">
         <v>665</v>
@@ -5505,13 +5535,13 @@
         <v>744662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>1221</v>
@@ -5520,13 +5550,13 @@
         <v>1289818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5624,13 @@
         <v>25069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5609,13 +5639,13 @@
         <v>20492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>405</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -5624,13 +5654,13 @@
         <v>45561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5675,13 @@
         <v>369934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
@@ -5660,13 +5690,13 @@
         <v>184666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -5675,13 +5705,13 @@
         <v>554600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5726,13 @@
         <v>243278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>278</v>
@@ -5711,13 +5741,13 @@
         <v>288230</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>503</v>
@@ -5726,13 +5756,13 @@
         <v>531508</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>133</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5777,13 @@
         <v>159690</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -5762,13 +5792,13 @@
         <v>187238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -5777,13 +5807,13 @@
         <v>346929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5828,13 @@
         <v>1273927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>1237</v>
@@ -5813,13 +5843,13 @@
         <v>1298412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>2442</v>
@@ -5828,13 +5858,13 @@
         <v>2572338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,7 +5876,7 @@
         <v>1948</v>
       </c>
       <c r="D15" s="7">
-        <v>2071899</v>
+        <v>2071898</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5890,7 +5920,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5902,13 +5932,13 @@
         <v>12836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5917,13 +5947,13 @@
         <v>11303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5932,13 +5962,13 @@
         <v>24139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5983,13 @@
         <v>131077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -5968,13 +5998,13 @@
         <v>74889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -5983,13 +6013,13 @@
         <v>205967</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6034,13 @@
         <v>67434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -6019,13 +6049,13 @@
         <v>104794</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
         <v>158</v>
@@ -6034,13 +6064,13 @@
         <v>172228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>385</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6085,13 @@
         <v>38029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -6070,13 +6100,13 @@
         <v>61943</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -6085,13 +6115,13 @@
         <v>99972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6136,13 @@
         <v>295378</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>284</v>
@@ -6121,13 +6151,13 @@
         <v>295206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>556</v>
@@ -6136,13 +6166,13 @@
         <v>590584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6240,13 @@
         <v>45930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>192</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -6225,13 +6255,13 @@
         <v>38255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>331</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -6240,13 +6270,13 @@
         <v>84186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6291,13 @@
         <v>593567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>317</v>
@@ -6276,13 +6306,13 @@
         <v>331979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>868</v>
@@ -6291,13 +6321,13 @@
         <v>925546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6342,13 @@
         <v>384172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>496</v>
@@ -6327,13 +6357,13 @@
         <v>527009</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>368</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>856</v>
@@ -6342,13 +6372,13 @@
         <v>911180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>298</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6393,13 @@
         <v>230662</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
@@ -6378,13 +6408,13 @@
         <v>284460</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="M25" s="7">
         <v>497</v>
@@ -6393,13 +6423,13 @@
         <v>515122</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6444,13 @@
         <v>2114461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>2186</v>
@@ -6429,13 +6459,13 @@
         <v>2338280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>514</v>
+        <v>56</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M26" s="7">
         <v>4219</v>
@@ -6444,13 +6474,13 @@
         <v>4452741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6536,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6525,7 +6555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876CC2F8-B032-4569-A162-CFEE6FBEFF83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E92EAE-1A92-467D-BB0E-36B1EC5D6664}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6542,7 +6572,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6649,13 +6679,13 @@
         <v>5630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>522</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6664,13 +6694,13 @@
         <v>1435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -6679,13 +6709,13 @@
         <v>7065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6730,13 @@
         <v>73785</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H5" s="7">
         <v>116</v>
@@ -6715,13 +6745,13 @@
         <v>74104</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -6730,13 +6760,13 @@
         <v>147888</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>536</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6781,13 @@
         <v>39830</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>541</v>
       </c>
       <c r="H6" s="7">
         <v>91</v>
@@ -6766,13 +6796,13 @@
         <v>55746</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="M6" s="7">
         <v>137</v>
@@ -6781,13 +6811,13 @@
         <v>95576</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6832,13 @@
         <v>17544</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -6817,13 +6847,13 @@
         <v>17366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>549</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -6832,13 +6862,13 @@
         <v>34909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6883,13 @@
         <v>401312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="H8" s="7">
         <v>1186</v>
@@ -6868,13 +6898,13 @@
         <v>683247</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="M8" s="7">
         <v>1715</v>
@@ -6883,13 +6913,13 @@
         <v>1084558</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6987,13 @@
         <v>21991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>482</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>562</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>563</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6972,13 +7002,13 @@
         <v>4588</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -6987,13 +7017,13 @@
         <v>26579</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7038,13 @@
         <v>555951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>569</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
@@ -7023,13 +7053,13 @@
         <v>348725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>572</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
@@ -7038,13 +7068,13 @@
         <v>904676</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7089,13 @@
         <v>170611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H12" s="7">
         <v>389</v>
@@ -7074,13 +7104,13 @@
         <v>291311</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="M12" s="7">
         <v>542</v>
@@ -7089,13 +7119,13 @@
         <v>461922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>493</v>
+        <v>584</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>573</v>
+        <v>462</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7140,13 @@
         <v>166314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="H13" s="7">
         <v>235</v>
@@ -7125,13 +7155,13 @@
         <v>181595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -7140,13 +7170,13 @@
         <v>347909</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>425</v>
+        <v>591</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>580</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7191,13 @@
         <v>1241572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="H14" s="7">
         <v>1791</v>
@@ -7176,13 +7206,13 @@
         <v>1418203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="M14" s="7">
         <v>3014</v>
@@ -7191,13 +7221,13 @@
         <v>2659775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,7 +7283,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7265,13 +7295,13 @@
         <v>6610</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -7280,13 +7310,13 @@
         <v>5902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7295,13 +7325,13 @@
         <v>12512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7346,13 @@
         <v>179612</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -7331,13 +7361,13 @@
         <v>140548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>611</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -7346,13 +7376,13 @@
         <v>320161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7397,13 @@
         <v>81345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>616</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>604</v>
+        <v>182</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="H18" s="7">
         <v>136</v>
@@ -7382,13 +7412,13 @@
         <v>102269</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="M18" s="7">
         <v>211</v>
@@ -7397,13 +7427,13 @@
         <v>183614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>610</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7448,13 @@
         <v>46819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -7433,13 +7463,13 @@
         <v>59846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>627</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -7448,13 +7478,13 @@
         <v>106665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7499,13 @@
         <v>352855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>631</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="H20" s="7">
         <v>559</v>
@@ -7484,13 +7514,13 @@
         <v>402724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>620</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="M20" s="7">
         <v>934</v>
@@ -7499,13 +7529,13 @@
         <v>755579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7603,13 @@
         <v>34232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>626</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -7588,13 +7618,13 @@
         <v>11925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7603,13 +7633,13 @@
         <v>46156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>629</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7654,13 @@
         <v>809349</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
@@ -7639,13 +7669,13 @@
         <v>563377</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="M23" s="7">
         <v>1566</v>
@@ -7654,13 +7684,13 @@
         <v>1372726</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>450</v>
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7705,13 @@
         <v>291786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="H24" s="7">
         <v>616</v>
@@ -7690,13 +7720,13 @@
         <v>449326</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>642</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="M24" s="7">
         <v>890</v>
@@ -7705,13 +7735,13 @@
         <v>741112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>644</v>
+        <v>96</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7756,13 @@
         <v>230677</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
         <v>353</v>
@@ -7741,13 +7771,13 @@
         <v>258806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>658</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="M25" s="7">
         <v>522</v>
@@ -7756,13 +7786,13 @@
         <v>489483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7807,13 @@
         <v>1995739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="H26" s="7">
         <v>3536</v>
@@ -7792,13 +7822,13 @@
         <v>2504173</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="M26" s="7">
         <v>5663</v>
@@ -7807,13 +7837,13 @@
         <v>4499913</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,7 +7899,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9E31953-344A-4B26-8D4C-F55159E4ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{621CCD29-A1AC-45A1-946B-1659DBB2F7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{222F0D57-F5DF-4EC9-AB27-48C4ED40959D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B56E4F8-566A-47AF-8813-4F647E075F40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="658">
   <si>
     <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2007 (Tasa respuesta: 99,83%)</t>
   </si>
@@ -77,1984 +77,1942 @@
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>No no he acudido en los últimos doce meses pero sí anteriorm</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>Sí por ambos motivos</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>Sí por algo que le pasaba a otra persona (familiar, conocido</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>Sí por algo que le pasaba a usted</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2012 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2016 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>No no he acudido en los últimos doce meses pero sí anteriorm</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>Sí por ambos motivos</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>Sí por algo que le pasaba a otra persona (familiar, conocido</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>Sí por algo que le pasaba a usted</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2012 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2016 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>5,06%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>59,37%</t>
   </si>
   <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
   </si>
   <si>
     <t>66,11%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
   </si>
 </sst>
 </file>
@@ -2466,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E1D51-D31D-4FB7-933D-5A8816F579FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22681390-17F7-48E9-B288-6ED89C1B91CC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3006,7 +2964,7 @@
         <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7">
         <v>342</v>
@@ -3015,13 +2973,13 @@
         <v>348055</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>512</v>
@@ -3030,13 +2988,13 @@
         <v>522931</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3009,13 @@
         <v>192319</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3066,13 +3024,13 @@
         <v>183592</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>367</v>
@@ -3081,13 +3039,13 @@
         <v>375911</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3060,13 @@
         <v>822501</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>772</v>
@@ -3117,13 +3075,13 @@
         <v>791218</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1577</v>
@@ -3132,13 +3090,13 @@
         <v>1613719</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3152,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3206,13 +3164,13 @@
         <v>14310</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3221,13 +3179,13 @@
         <v>16483</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -3236,13 +3194,13 @@
         <v>30792</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3215,13 @@
         <v>145992</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -3272,13 +3230,13 @@
         <v>76026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -3287,13 +3245,13 @@
         <v>222018</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3266,13 @@
         <v>58105</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -3323,13 +3281,13 @@
         <v>86010</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -3338,13 +3296,13 @@
         <v>144115</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3317,13 @@
         <v>94582</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -3374,13 +3332,13 @@
         <v>53768</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -3389,13 +3347,13 @@
         <v>148350</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3368,13 @@
         <v>235219</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -3425,13 +3383,13 @@
         <v>244126</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
@@ -3440,13 +3398,13 @@
         <v>479344</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3472,7 @@
         <v>64218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>152</v>
@@ -3550,7 +3508,7 @@
         <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3559,7 @@
         <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,7 +3574,7 @@
         <v>405964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>168</v>
@@ -3649,10 +3607,10 @@
         <v>31</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3625,13 @@
         <v>358559</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>325</v>
@@ -3682,13 +3640,13 @@
         <v>331318</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>674</v>
@@ -3697,13 +3655,13 @@
         <v>689877</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3676,13 @@
         <v>1633470</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>1825</v>
@@ -3733,13 +3691,13 @@
         <v>1873093</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>3443</v>
@@ -3748,13 +3706,13 @@
         <v>3506563</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3768,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3829,7 +3787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DFE71B-9E6F-434E-B7F2-D9390E6A3BA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE299909-23CD-4FC6-9433-6E8C5FB57D64}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3846,7 +3804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3953,13 +3911,13 @@
         <v>17890</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3968,13 +3926,13 @@
         <v>7859</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3983,13 +3941,13 @@
         <v>25750</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,10 +3962,10 @@
         <v>117617</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>204</v>
@@ -4055,13 +4013,13 @@
         <v>128101</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>252</v>
@@ -4070,13 +4028,13 @@
         <v>268854</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>369</v>
@@ -4085,13 +4043,13 @@
         <v>396956</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,7 +4064,7 @@
         <v>58159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>220</v>
@@ -4282,7 +4240,7 @@
         <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4291,13 +4249,13 @@
         <v>35814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4270,13 @@
         <v>376894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -4327,13 +4285,13 @@
         <v>160825</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>510</v>
@@ -4342,13 +4300,13 @@
         <v>537719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4321,13 @@
         <v>316424</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>431</v>
@@ -4378,7 +4336,7 @@
         <v>458866</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>257</v>
@@ -4447,7 +4405,7 @@
         <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>269</v>
@@ -4557,7 +4515,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4599,13 +4557,13 @@
         <v>19911</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4578,13 @@
         <v>99528</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4635,13 +4593,13 @@
         <v>46402</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -4650,13 +4608,13 @@
         <v>145930</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4629,13 @@
         <v>76508</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -4686,13 +4644,13 @@
         <v>116026</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -4701,13 +4659,13 @@
         <v>192534</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4680,13 @@
         <v>69393</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -4737,28 +4695,28 @@
         <v>50165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
       </c>
       <c r="N19" s="7">
-        <v>119558</v>
+        <v>119559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4731,13 @@
         <v>225765</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -4788,13 +4746,13 @@
         <v>233992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -4803,13 +4761,13 @@
         <v>459757</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4809,7 @@
         <v>848</v>
       </c>
       <c r="N21" s="7">
-        <v>937690</v>
+        <v>937691</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -4877,13 +4835,13 @@
         <v>50275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -4892,13 +4850,13 @@
         <v>31200</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -4907,13 +4865,13 @@
         <v>81475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4886,13 @@
         <v>594039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>252</v>
@@ -4943,13 +4901,13 @@
         <v>272921</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>819</v>
@@ -4958,13 +4916,13 @@
         <v>866960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4937,13 @@
         <v>521034</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>788</v>
@@ -4994,13 +4952,13 @@
         <v>843746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>1272</v>
@@ -5009,13 +4967,13 @@
         <v>1364779</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +4988,13 @@
         <v>345051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>301</v>
@@ -5045,13 +5003,13 @@
         <v>329250</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="M25" s="7">
         <v>629</v>
@@ -5060,13 +5018,13 @@
         <v>674300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5039,13 @@
         <v>1907284</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>1923</v>
@@ -5096,28 +5054,28 @@
         <v>2073934</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>3702</v>
       </c>
       <c r="N26" s="7">
-        <v>3981218</v>
+        <v>3981217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,7 +5117,7 @@
         <v>6491</v>
       </c>
       <c r="N27" s="7">
-        <v>6968732</v>
+        <v>6968731</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5173,7 +5131,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +5150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703679A6-990D-4517-91E0-3410E6C8FA95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6349BC95-C641-4232-AFFA-BAFFE7A9E6DE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5209,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5316,13 +5274,13 @@
         <v>8025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>368</v>
+        <v>70</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5331,13 +5289,13 @@
         <v>6460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5346,13 +5304,13 @@
         <v>14486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5325,13 @@
         <v>92556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -5382,13 +5340,13 @@
         <v>72424</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>154</v>
@@ -5397,13 +5355,13 @@
         <v>164980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5376,13 @@
         <v>73459</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H6" s="7">
         <v>120</v>
@@ -5433,13 +5391,13 @@
         <v>133985</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>195</v>
@@ -5448,13 +5406,13 @@
         <v>207444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5427,13 @@
         <v>32943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5484,13 +5442,13 @@
         <v>35278</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5499,13 +5457,13 @@
         <v>68221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5478,13 @@
         <v>545156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H8" s="7">
         <v>665</v>
@@ -5535,13 +5493,13 @@
         <v>744662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M8" s="7">
         <v>1221</v>
@@ -5550,13 +5508,13 @@
         <v>1289818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5582,13 @@
         <v>25069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5639,13 +5597,13 @@
         <v>20492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -5654,13 +5612,13 @@
         <v>45561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>406</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5633,13 @@
         <v>369934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
@@ -5690,13 +5648,13 @@
         <v>184666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -5705,13 +5663,13 @@
         <v>554600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5684,13 @@
         <v>243278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H12" s="7">
         <v>278</v>
@@ -5741,13 +5699,13 @@
         <v>288230</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M12" s="7">
         <v>503</v>
@@ -5756,13 +5714,13 @@
         <v>531508</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5735,13 @@
         <v>159690</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -5792,13 +5750,13 @@
         <v>187238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -5807,13 +5765,13 @@
         <v>346929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5786,13 @@
         <v>1273927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>1237</v>
@@ -5843,13 +5801,13 @@
         <v>1298412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>2442</v>
@@ -5858,13 +5816,13 @@
         <v>2572338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,7 +5878,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5932,13 +5890,13 @@
         <v>12836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5947,13 +5905,13 @@
         <v>11303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5962,13 +5920,13 @@
         <v>24139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +5941,13 @@
         <v>131077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -5998,13 +5956,13 @@
         <v>74889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -6013,13 +5971,13 @@
         <v>205967</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +5992,13 @@
         <v>67434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -6049,13 +6007,13 @@
         <v>104794</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M18" s="7">
         <v>158</v>
@@ -6064,13 +6022,13 @@
         <v>172228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6043,13 @@
         <v>38029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -6100,13 +6058,13 @@
         <v>61943</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>351</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -6115,13 +6073,13 @@
         <v>99972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6094,13 @@
         <v>295378</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>284</v>
@@ -6151,13 +6109,13 @@
         <v>295206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>556</v>
@@ -6166,13 +6124,13 @@
         <v>590584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6198,13 @@
         <v>45930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -6255,13 +6213,13 @@
         <v>38255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -6270,13 +6228,13 @@
         <v>84186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>480</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6249,13 @@
         <v>593567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
         <v>317</v>
@@ -6306,13 +6264,13 @@
         <v>331979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M23" s="7">
         <v>868</v>
@@ -6321,13 +6279,13 @@
         <v>925546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6300,13 @@
         <v>384172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H24" s="7">
         <v>496</v>
@@ -6357,13 +6315,13 @@
         <v>527009</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M24" s="7">
         <v>856</v>
@@ -6372,13 +6330,13 @@
         <v>911180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>298</v>
+        <v>498</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6351,13 @@
         <v>230662</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
@@ -6408,13 +6366,13 @@
         <v>284460</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M25" s="7">
         <v>497</v>
@@ -6423,13 +6381,13 @@
         <v>515122</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6402,13 @@
         <v>2114461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="H26" s="7">
         <v>2186</v>
@@ -6459,13 +6417,13 @@
         <v>2338280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M26" s="7">
         <v>4219</v>
@@ -6474,13 +6432,13 @@
         <v>4452741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6494,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6555,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E92EAE-1A92-467D-BB0E-36B1EC5D6664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F4D535-1211-4940-9CE7-07B3FAA91B65}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6572,7 +6530,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6679,13 +6637,13 @@
         <v>5630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>517</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6694,13 +6652,13 @@
         <v>1435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -6709,13 +6667,13 @@
         <v>7065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>529</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6688,13 @@
         <v>73785</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H5" s="7">
         <v>116</v>
@@ -6745,13 +6703,13 @@
         <v>74104</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>534</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -6760,13 +6718,13 @@
         <v>147888</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6739,13 @@
         <v>39830</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>541</v>
+        <v>375</v>
       </c>
       <c r="H6" s="7">
         <v>91</v>
@@ -6796,13 +6754,13 @@
         <v>55746</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M6" s="7">
         <v>137</v>
@@ -6811,13 +6769,13 @@
         <v>95576</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>545</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6790,13 @@
         <v>17544</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>539</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>547</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -6847,13 +6805,13 @@
         <v>17366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>549</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -6862,13 +6820,13 @@
         <v>34909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>543</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6841,13 @@
         <v>401312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H8" s="7">
         <v>1186</v>
@@ -6898,13 +6856,13 @@
         <v>683247</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="M8" s="7">
         <v>1715</v>
@@ -6913,13 +6871,13 @@
         <v>1084558</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6945,13 @@
         <v>21991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -7002,13 +6960,13 @@
         <v>4588</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>566</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -7017,13 +6975,13 @@
         <v>26579</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +6996,13 @@
         <v>555951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
@@ -7053,28 +7011,28 @@
         <v>348725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
       </c>
       <c r="N11" s="7">
-        <v>904676</v>
+        <v>904677</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7047,13 @@
         <v>170611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H12" s="7">
         <v>389</v>
@@ -7104,13 +7062,13 @@
         <v>291311</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M12" s="7">
         <v>542</v>
@@ -7119,13 +7077,13 @@
         <v>461922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>462</v>
+        <v>577</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7098,13 @@
         <v>166314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H13" s="7">
         <v>235</v>
@@ -7155,13 +7113,13 @@
         <v>181595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -7170,13 +7128,13 @@
         <v>347909</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>426</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7149,13 @@
         <v>1241572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="H14" s="7">
         <v>1791</v>
@@ -7206,13 +7164,13 @@
         <v>1418203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="M14" s="7">
         <v>3014</v>
@@ -7221,13 +7179,13 @@
         <v>2659775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +7227,7 @@
         <v>4901</v>
       </c>
       <c r="N15" s="7">
-        <v>4400861</v>
+        <v>4400862</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7283,7 +7241,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7298,10 +7256,10 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -7310,13 +7268,13 @@
         <v>5902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>603</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7325,13 +7283,13 @@
         <v>12512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>605</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7304,13 @@
         <v>179612</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -7361,13 +7319,13 @@
         <v>140548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -7376,13 +7334,13 @@
         <v>320161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,13 +7355,13 @@
         <v>81345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>182</v>
+        <v>607</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="H18" s="7">
         <v>136</v>
@@ -7412,13 +7370,13 @@
         <v>102269</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>620</v>
+        <v>526</v>
       </c>
       <c r="M18" s="7">
         <v>211</v>
@@ -7427,13 +7385,13 @@
         <v>183614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,13 +7406,13 @@
         <v>46819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -7463,13 +7421,13 @@
         <v>59846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>627</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -7478,13 +7436,13 @@
         <v>106665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>628</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>629</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,13 +7457,13 @@
         <v>352855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="H20" s="7">
         <v>559</v>
@@ -7514,13 +7472,13 @@
         <v>402724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>622</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="M20" s="7">
         <v>934</v>
@@ -7529,13 +7487,13 @@
         <v>755579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>276</v>
+        <v>626</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7561,13 @@
         <v>34232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>638</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -7618,13 +7576,13 @@
         <v>11925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7633,13 +7591,13 @@
         <v>46156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7612,13 @@
         <v>809349</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
@@ -7669,13 +7627,13 @@
         <v>563377</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>645</v>
+        <v>414</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>407</v>
       </c>
       <c r="M23" s="7">
         <v>1566</v>
@@ -7684,13 +7642,13 @@
         <v>1372726</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7663,13 @@
         <v>291786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>649</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="H24" s="7">
         <v>616</v>
@@ -7720,13 +7678,13 @@
         <v>449326</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>639</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="M24" s="7">
         <v>890</v>
@@ -7735,13 +7693,13 @@
         <v>741112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>96</v>
+        <v>574</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>654</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,13 +7714,13 @@
         <v>230677</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>268</v>
+        <v>644</v>
       </c>
       <c r="H25" s="7">
         <v>353</v>
@@ -7771,13 +7729,13 @@
         <v>258806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>659</v>
+        <v>219</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="M25" s="7">
         <v>522</v>
@@ -7786,13 +7744,13 @@
         <v>489483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7765,13 @@
         <v>1995739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="H26" s="7">
         <v>3536</v>
@@ -7822,13 +7780,13 @@
         <v>2504173</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="M26" s="7">
         <v>5663</v>
@@ -7837,13 +7795,13 @@
         <v>4499913</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,7 +7843,7 @@
         <v>8692</v>
       </c>
       <c r="N27" s="7">
-        <v>7149390</v>
+        <v>7149389</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7899,7 +7857,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{621CCD29-A1AC-45A1-946B-1659DBB2F7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE47C205-A4D5-4CB4-9F9A-B22659686659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B56E4F8-566A-47AF-8813-4F647E075F40}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{017C9D00-D208-4FEA-9348-A866312D6271}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="652">
   <si>
     <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2007 (Tasa respuesta: 99,83%)</t>
   </si>
@@ -1589,430 +1589,412 @@
     <t>Población que ha acudido a un centro de salud o ambulatorio de la Seguridad Social/SAS por algo que le pasaba a usted o como acompañante durante el último año en 2023 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
 </sst>
 </file>
@@ -2424,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22681390-17F7-48E9-B288-6ED89C1B91CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACBC857-25FA-43CD-8837-385A1D84F1B1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3787,7 +3769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE299909-23CD-4FC6-9433-6E8C5FB57D64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F5A487-A6A8-406E-9271-54234CE0AC0F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,7 +4145,7 @@
         <v>907</v>
       </c>
       <c r="D9" s="7">
-        <v>973584</v>
+        <v>973583</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -4934,7 +4916,7 @@
         <v>484</v>
       </c>
       <c r="D24" s="7">
-        <v>521034</v>
+        <v>521033</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>334</v>
@@ -4985,7 +4967,7 @@
         <v>328</v>
       </c>
       <c r="D25" s="7">
-        <v>345051</v>
+        <v>345050</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>343</v>
@@ -5087,7 +5069,7 @@
         <v>3200</v>
       </c>
       <c r="D27" s="7">
-        <v>3417682</v>
+        <v>3417681</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5150,7 +5132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6349BC95-C641-4232-AFFA-BAFFE7A9E6DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BDA555-7A5F-4AEB-91BF-70FF2809BE8C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5798,7 +5780,7 @@
         <v>1237</v>
       </c>
       <c r="I14" s="7">
-        <v>1298412</v>
+        <v>1298411</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>435</v>
@@ -5834,7 +5816,7 @@
         <v>1948</v>
       </c>
       <c r="D15" s="7">
-        <v>2071898</v>
+        <v>2071899</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5849,7 +5831,7 @@
         <v>1899</v>
       </c>
       <c r="I15" s="7">
-        <v>1979038</v>
+        <v>1979037</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -6399,7 +6381,7 @@
         <v>2033</v>
       </c>
       <c r="D26" s="7">
-        <v>2114461</v>
+        <v>2114460</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>506</v>
@@ -6450,7 +6432,7 @@
         <v>3207</v>
       </c>
       <c r="D27" s="7">
-        <v>3368792</v>
+        <v>3368791</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6465,7 +6447,7 @@
         <v>3314</v>
       </c>
       <c r="I27" s="7">
-        <v>3519982</v>
+        <v>3519983</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6513,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F4D535-1211-4940-9CE7-07B3FAA91B65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C20BD39-950E-4760-9CAD-269F438EDC9B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6634,46 +6616,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>5630</v>
+        <v>5494</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1435</v>
+        <v>1317</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>7065</v>
+        <v>6811</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,46 +6667,46 @@
         <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>73785</v>
+        <v>70203</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H5" s="7">
         <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>74104</v>
+        <v>67368</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>527</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>526</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
       </c>
       <c r="N5" s="7">
-        <v>147888</v>
+        <v>137571</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>530</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,46 +6718,46 @@
         <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>39830</v>
+        <v>38036</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>375</v>
+        <v>530</v>
       </c>
       <c r="H6" s="7">
         <v>91</v>
       </c>
       <c r="I6" s="7">
-        <v>55746</v>
+        <v>52187</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M6" s="7">
         <v>137</v>
       </c>
       <c r="N6" s="7">
-        <v>95576</v>
+        <v>90222</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,46 +6769,46 @@
         <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>17544</v>
+        <v>17187</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>539</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>536</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>17366</v>
+        <v>16082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>34909</v>
+        <v>33269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>544</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,46 +6820,46 @@
         <v>529</v>
       </c>
       <c r="D8" s="7">
-        <v>401312</v>
+        <v>380528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H8" s="7">
         <v>1186</v>
       </c>
       <c r="I8" s="7">
-        <v>683247</v>
+        <v>615015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M8" s="7">
         <v>1715</v>
       </c>
       <c r="N8" s="7">
-        <v>1084558</v>
+        <v>995544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,7 +6871,7 @@
         <v>688</v>
       </c>
       <c r="D9" s="7">
-        <v>538100</v>
+        <v>511447</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6904,7 +6886,7 @@
         <v>1424</v>
       </c>
       <c r="I9" s="7">
-        <v>831897</v>
+        <v>751970</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6919,7 +6901,7 @@
         <v>2112</v>
       </c>
       <c r="N9" s="7">
-        <v>1369997</v>
+        <v>1263417</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6942,46 +6924,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>21991</v>
+        <v>22728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>555</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>4588</v>
+        <v>4220</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>553</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>26579</v>
+        <v>26948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>560</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,46 +6975,46 @@
         <v>489</v>
       </c>
       <c r="D11" s="7">
-        <v>555951</v>
+        <v>545102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
       </c>
       <c r="I11" s="7">
-        <v>348725</v>
+        <v>311510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
       </c>
       <c r="N11" s="7">
-        <v>904677</v>
+        <v>856611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,46 +7026,46 @@
         <v>153</v>
       </c>
       <c r="D12" s="7">
-        <v>170611</v>
+        <v>164201</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H12" s="7">
         <v>389</v>
       </c>
       <c r="I12" s="7">
-        <v>291311</v>
+        <v>272092</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M12" s="7">
         <v>542</v>
       </c>
       <c r="N12" s="7">
-        <v>461922</v>
+        <v>436293</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>576</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>577</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,46 +7077,46 @@
         <v>105</v>
       </c>
       <c r="D13" s="7">
-        <v>166314</v>
+        <v>359458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>557</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H13" s="7">
         <v>235</v>
       </c>
       <c r="I13" s="7">
-        <v>181595</v>
+        <v>169095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
       </c>
       <c r="N13" s="7">
-        <v>347909</v>
+        <v>528553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,46 +7128,46 @@
         <v>1223</v>
       </c>
       <c r="D14" s="7">
-        <v>1241572</v>
+        <v>1193360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H14" s="7">
         <v>1791</v>
       </c>
       <c r="I14" s="7">
-        <v>1418203</v>
+        <v>1476102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M14" s="7">
         <v>3014</v>
       </c>
       <c r="N14" s="7">
-        <v>2659775</v>
+        <v>2669462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,7 +7179,7 @@
         <v>1987</v>
       </c>
       <c r="D15" s="7">
-        <v>2156440</v>
+        <v>2284849</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7212,7 +7194,7 @@
         <v>2914</v>
       </c>
       <c r="I15" s="7">
-        <v>2244421</v>
+        <v>2233019</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7227,7 +7209,7 @@
         <v>4901</v>
       </c>
       <c r="N15" s="7">
-        <v>4400862</v>
+        <v>4517868</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7250,22 +7232,22 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>6610</v>
+        <v>5993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>5902</v>
+        <v>5447</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>364</v>
@@ -7274,22 +7256,22 @@
         <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>12512</v>
+        <v>11440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,46 +7283,46 @@
         <v>180</v>
       </c>
       <c r="D17" s="7">
-        <v>179612</v>
+        <v>169928</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
       </c>
       <c r="I17" s="7">
-        <v>140548</v>
+        <v>128890</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>602</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
       </c>
       <c r="N17" s="7">
-        <v>320161</v>
+        <v>298818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,46 +7334,46 @@
         <v>75</v>
       </c>
       <c r="D18" s="7">
-        <v>81345</v>
+        <v>78615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>608</v>
+        <v>217</v>
       </c>
       <c r="H18" s="7">
         <v>136</v>
       </c>
       <c r="I18" s="7">
-        <v>102269</v>
+        <v>95736</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>609</v>
+        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>526</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>211</v>
       </c>
       <c r="N18" s="7">
-        <v>183614</v>
+        <v>174351</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>603</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,46 +7385,46 @@
         <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>46819</v>
+        <v>45099</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
       </c>
       <c r="I19" s="7">
-        <v>59846</v>
+        <v>55686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
       </c>
       <c r="N19" s="7">
-        <v>106665</v>
+        <v>100786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>610</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>611</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,46 +7436,46 @@
         <v>375</v>
       </c>
       <c r="D20" s="7">
-        <v>352855</v>
+        <v>336913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H20" s="7">
         <v>559</v>
       </c>
       <c r="I20" s="7">
-        <v>402724</v>
+        <v>372307</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="M20" s="7">
         <v>934</v>
       </c>
       <c r="N20" s="7">
-        <v>755579</v>
+        <v>709220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,7 +7487,7 @@
         <v>679</v>
       </c>
       <c r="D21" s="7">
-        <v>667242</v>
+        <v>636549</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7520,7 +7502,7 @@
         <v>1000</v>
       </c>
       <c r="I21" s="7">
-        <v>711289</v>
+        <v>658066</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7535,7 +7517,7 @@
         <v>1679</v>
       </c>
       <c r="N21" s="7">
-        <v>1378531</v>
+        <v>1294615</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7558,13 +7540,13 @@
         <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>34232</v>
+        <v>34215</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>622</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>152</v>
@@ -7573,31 +7555,31 @@
         <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>11925</v>
+        <v>10984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>628</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>629</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
       </c>
       <c r="N22" s="7">
-        <v>46156</v>
+        <v>45199</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>624</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,46 +7591,46 @@
         <v>753</v>
       </c>
       <c r="D23" s="7">
-        <v>809349</v>
+        <v>785233</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>631</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
       </c>
       <c r="I23" s="7">
-        <v>563377</v>
+        <v>507768</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>628</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>407</v>
+        <v>630</v>
       </c>
       <c r="M23" s="7">
         <v>1566</v>
       </c>
       <c r="N23" s="7">
-        <v>1372726</v>
+        <v>1293000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>634</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,46 +7642,46 @@
         <v>274</v>
       </c>
       <c r="D24" s="7">
-        <v>291786</v>
+        <v>280851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>46</v>
+        <v>632</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H24" s="7">
         <v>616</v>
       </c>
       <c r="I24" s="7">
-        <v>449326</v>
+        <v>420015</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>639</v>
+        <v>427</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M24" s="7">
         <v>890</v>
       </c>
       <c r="N24" s="7">
-        <v>741112</v>
+        <v>700866</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>533</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>641</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,46 +7693,46 @@
         <v>169</v>
       </c>
       <c r="D25" s="7">
-        <v>230677</v>
+        <v>421745</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>642</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>643</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H25" s="7">
         <v>353</v>
       </c>
       <c r="I25" s="7">
-        <v>258806</v>
+        <v>240864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>219</v>
+        <v>640</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="M25" s="7">
         <v>522</v>
       </c>
       <c r="N25" s="7">
-        <v>489483</v>
+        <v>662608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>500</v>
+        <v>634</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,46 +7744,46 @@
         <v>2127</v>
       </c>
       <c r="D26" s="7">
-        <v>1995739</v>
+        <v>1910802</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="H26" s="7">
         <v>3536</v>
       </c>
       <c r="I26" s="7">
-        <v>2504173</v>
+        <v>2463423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M26" s="7">
         <v>5663</v>
       </c>
       <c r="N26" s="7">
-        <v>4499913</v>
+        <v>4374226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,7 +7795,7 @@
         <v>3354</v>
       </c>
       <c r="D27" s="7">
-        <v>3361782</v>
+        <v>3432845</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7828,7 +7810,7 @@
         <v>5338</v>
       </c>
       <c r="I27" s="7">
-        <v>3787607</v>
+        <v>3643054</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7843,7 +7825,7 @@
         <v>8692</v>
       </c>
       <c r="N27" s="7">
-        <v>7149389</v>
+        <v>7075900</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
